--- a/medicine/Psychotrope/XX_Bitter/XX_Bitter.xlsx
+++ b/medicine/Psychotrope/XX_Bitter/XX_Bitter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La XX Bitter est une bière belge, blonde amère, très fortement houblonnée, produite par la brasserie De Ranke[1] à Dottenijs dans le Hainaut.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La XX Bitter est une bière belge, blonde amère, très fortement houblonnée, produite par la brasserie De Ranke à Dottenijs dans le Hainaut.
 C'est une bière de fermentation haute.
 Elle fait figure de pionnière dans la montée en puissance des bières amères depuis 2001, date à laquelle elle était la bière la plus amère de Belgique.
 </t>
@@ -513,7 +525,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">XX Bitter, une bière blonde ayant un taux d'alcool de 6,2% ;
 XXX Bitter, une bière blonde ayant un taux d'alcool de 6%, brassée à partir de 2013 à la demande de l'importateur de bières belges aux États-Unis.
